--- a/src/main/resources/csv/creeps.xlsx
+++ b/src/main/resources/csv/creeps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23256" windowHeight="9647"/>
+    <workbookView windowWidth="22488" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,12 +93,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +108,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -115,22 +129,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,8 +196,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,77 +236,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,54 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -535,6 +480,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,159 +528,174 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,7 +1023,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1081,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>400</v>
       </c>
       <c r="G2">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1107,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>106</v>
+        <v>500</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -1133,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>183</v>
+        <v>300</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -1159,7 +1152,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>165</v>
+        <v>450</v>
       </c>
       <c r="G5">
         <v>42</v>

--- a/src/main/resources/csv/creeps.xlsx
+++ b/src/main/resources/csv/creeps.xlsx
@@ -93,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -114,8 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,38 +137,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,38 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,16 +197,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,52 +454,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,6 +487,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,9 +543,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1074,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G2">
         <v>20</v>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="F3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="G3">
         <v>11</v>
@@ -1126,7 +1126,7 @@
         <v>9</v>
       </c>
       <c r="F4">
-        <v>300</v>
+        <v>780</v>
       </c>
       <c r="G4">
         <v>15</v>

--- a/src/main/resources/csv/creeps.xlsx
+++ b/src/main/resources/csv/creeps.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>creepId</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>hp</t>
+  </si>
+  <si>
+    <t>maxHp</t>
   </si>
   <si>
     <t>damage</t>
@@ -93,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -108,7 +111,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,61 +225,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,68 +253,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -260,31 +263,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,73 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,73 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,11 +457,67 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,21 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -510,57 +554,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -569,133 +572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1020,18 +1023,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,13 +1059,16 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>109</v>
@@ -1077,18 +1083,21 @@
         <v>800</v>
       </c>
       <c r="G2">
+        <v>1000</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>109</v>
@@ -1103,18 +1112,21 @@
         <v>900</v>
       </c>
       <c r="G3">
+        <v>900</v>
+      </c>
+      <c r="H3">
         <v>11</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>109</v>
@@ -1129,18 +1141,21 @@
         <v>780</v>
       </c>
       <c r="G4">
+        <v>800</v>
+      </c>
+      <c r="H4">
         <v>15</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>109</v>
@@ -1155,18 +1170,21 @@
         <v>450</v>
       </c>
       <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
         <v>42</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>109</v>
@@ -1181,18 +1199,21 @@
         <v>445</v>
       </c>
       <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
         <v>43</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>109</v>
@@ -1207,18 +1228,21 @@
         <v>661</v>
       </c>
       <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
         <v>55</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>10020</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>109</v>
@@ -1233,18 +1257,21 @@
         <v>636</v>
       </c>
       <c r="G8">
+        <v>800</v>
+      </c>
+      <c r="H8">
         <v>62</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>10021</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>109</v>
@@ -1259,18 +1286,21 @@
         <v>728</v>
       </c>
       <c r="G9">
+        <v>900</v>
+      </c>
+      <c r="H9">
         <v>58</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>10022</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>109</v>
@@ -1285,18 +1315,21 @@
         <v>784</v>
       </c>
       <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
         <v>70</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10023</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>109</v>
@@ -1311,18 +1344,21 @@
         <v>614</v>
       </c>
       <c r="G11">
+        <v>800</v>
+      </c>
+      <c r="H11">
         <v>45</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>10024</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>109</v>
@@ -1337,18 +1373,21 @@
         <v>934</v>
       </c>
       <c r="G12">
+        <v>1000</v>
+      </c>
+      <c r="H12">
         <v>62</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>10040</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>109</v>
@@ -1363,18 +1402,21 @@
         <v>1236</v>
       </c>
       <c r="G13">
+        <v>1300</v>
+      </c>
+      <c r="H13">
         <v>76</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>10041</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -1389,18 +1431,21 @@
         <v>1403</v>
       </c>
       <c r="G14">
+        <v>1500</v>
+      </c>
+      <c r="H14">
         <v>76</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>10042</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>109</v>
@@ -1415,18 +1460,21 @@
         <v>1463</v>
       </c>
       <c r="G15">
+        <v>1500</v>
+      </c>
+      <c r="H15">
         <v>106</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>10043</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>109</v>
@@ -1441,18 +1489,21 @@
         <v>2088</v>
       </c>
       <c r="G16">
+        <v>2200</v>
+      </c>
+      <c r="H16">
         <v>297</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>10044</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>109</v>
@@ -1467,9 +1518,12 @@
         <v>2937</v>
       </c>
       <c r="G17">
+        <v>3000</v>
+      </c>
+      <c r="H17">
         <v>205</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>9</v>
       </c>
     </row>

--- a/src/main/resources/csv/creeps.xlsx
+++ b/src/main/resources/csv/creeps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22488" windowHeight="9347"/>
+    <workbookView windowWidth="17088" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>creepId</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>siteId</t>
+  </si>
+  <si>
+    <t>coolDown</t>
   </si>
   <si>
     <t>染病的森林狼</t>
@@ -96,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -111,6 +114,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -118,45 +128,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +218,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -185,72 +249,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -263,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +457,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,35 +486,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,8 +511,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,9 +534,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -560,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,10 +1026,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1034,7 +1037,7 @@
     <col min="2" max="2" width="18.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1062,13 +1065,16 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>109</v>
@@ -1091,13 +1097,16 @@
       <c r="I2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>109</v>
@@ -1120,13 +1129,16 @@
       <c r="I3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>109</v>
@@ -1149,13 +1161,16 @@
       <c r="I4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>109</v>
@@ -1178,13 +1193,16 @@
       <c r="I5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>109</v>
@@ -1207,13 +1225,16 @@
       <c r="I6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>109</v>
@@ -1236,13 +1257,16 @@
       <c r="I7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>10020</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>109</v>
@@ -1265,13 +1289,16 @@
       <c r="I8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>10021</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>109</v>
@@ -1294,13 +1321,16 @@
       <c r="I9">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>10022</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>109</v>
@@ -1323,13 +1353,16 @@
       <c r="I10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10023</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>109</v>
@@ -1352,13 +1385,16 @@
       <c r="I11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10024</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>109</v>
@@ -1381,13 +1417,16 @@
       <c r="I12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>10040</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>109</v>
@@ -1410,13 +1449,16 @@
       <c r="I13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>10041</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -1439,13 +1481,16 @@
       <c r="I14">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>10042</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>109</v>
@@ -1468,13 +1513,16 @@
       <c r="I15">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>10043</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>109</v>
@@ -1497,13 +1545,16 @@
       <c r="I16">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>10044</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>109</v>
@@ -1525,6 +1576,9 @@
       </c>
       <c r="I17">
         <v>9</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/csv/creeps.xlsx
+++ b/src/main/resources/csv/creeps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17088" windowHeight="8484"/>
+    <workbookView windowWidth="20448" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,23 +114,100 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,14 +227,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -165,93 +251,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,25 +266,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,19 +386,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,133 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,15 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,33 +509,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,16 +537,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,133 +575,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1029,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1080,7 +1080,7 @@
         <v>109</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1112,7 +1112,7 @@
         <v>109</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1144,7 +1144,7 @@
         <v>109</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>9</v>
@@ -1176,7 +1176,7 @@
         <v>109</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1208,7 +1208,7 @@
         <v>109</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>19</v>
@@ -1368,7 +1368,7 @@
         <v>109</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E11">
         <v>23</v>
